--- a/Exercise_Railway.xlsx
+++ b/Exercise_Railway.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DUE\Nam3\kì 2\Kiem_Thu\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B7433C-83CE-4B92-AFE5-3A033B244052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2326EB8C-F242-471B-8A56-23938BBD5CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Testcase" sheetId="1" r:id="rId1"/>
+    <sheet name="Bugs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
   <si>
     <t>TC ID</t>
   </si>
@@ -398,17 +399,92 @@
     <t xml:space="preserve">Server error when user click button Send Instruction with email valid </t>
   </si>
   <si>
-    <t>User can't receive email to verify when register succesfull with email valid</t>
-  </si>
-  <si>
     <t>Depart from and Arrive At Fields in BookTicket Page do not match with Depart from and Arrive At in Time Table Page when user click btn bookticket have Depart From = "Sài Gòn" and Arrive At = "Nha Trang"</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Sumary</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>User can't receive email to verify account when register succesfull with email valid</t>
+  </si>
+  <si>
+    <t>When user successfully registers account, an email must be sent to them for confirmation, but in this case the email was not sent</t>
+  </si>
+  <si>
+    <t>The verification email do not sent to user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The verification email must sent to user </t>
+  </si>
+  <si>
+    <t>TC12, TC13</t>
+  </si>
+  <si>
+    <t>User forget password and want to reset. When user fill valid email into fields Email and click button Send Instruction, a mailbox should appear to reset the password. But in this case, the mailbox does not appear and instead says that the server has an error.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway website
+2. Click tab Register
+3.  Fill info to the field:
+    - Email: valid email (sang@gmail.com)
+    - Password: sang12345
+    - Confirm password: the same password (sang12345)
+   - Passport Number: 12345678
+4. Click button Register</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway website
+2. Click tab Login
+3. Click on Forget Password link
+4. Fill into the field Email: valid email (sang@gmail.com)
+5. Click on button Send Instruction</t>
+  </si>
+  <si>
+    <t>The system reported an error with the server</t>
+  </si>
+  <si>
+    <t>The mailbox should be appeared</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway website
+2. User perform Login
+3. Click on tab TimeTable
+4. Click button book ticket where the field Depart from is Sài Gòn and Arrive At is Nha Trang
+5. Observe</t>
+  </si>
+  <si>
+    <t>When user click button book ticket with Depart from = "Sài Gòn" and Arrive At = "Nha Trang " in TimeTable Page, the BookTicket page will display with the Depart From and Arrive At fields containing information as Saigon and Nha Trang respectively.</t>
+  </si>
+  <si>
+    <t>the Depart From and Arrive At fields containing information in BookTicket page do not match with the Depart From and Arrive At fields containing information SaiGon and NhaTrang</t>
+  </si>
+  <si>
+    <t>the Depart From and Arrive At fields containing information in BookTicket page have to match with the Depart From and Arrive At fields containing information SaiGon and NhaTrang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,8 +533,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,13 +602,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -546,8 +640,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,6 +697,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53163</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1844097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEA736E-8535-492C-8FDA-8C85992D1FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11642651" y="2215117"/>
+          <a:ext cx="3942907" cy="1844096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95941</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C255744C-9A59-454D-9F99-18082C3C50F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12120564" y="4357689"/>
+          <a:ext cx="4517127" cy="1956792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,22 +1057,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="91.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="54.88671875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="67.21875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="91.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="54.88671875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,604 +1085,619 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="6" t="s">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="6" t="s">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5" t="s">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5" t="s">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5" t="s">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5" t="s">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="6" t="s">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="6" t="s">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="6" t="s">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5" t="s">
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="s">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5" t="s">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5" t="s">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5" t="s">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6" t="s">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6" t="s">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5" t="s">
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
@@ -1465,17 +1706,15 @@
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
     </row>
-    <row r="70" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="6" t="s">
+    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -1483,12 +1722,12 @@
       <c r="K70" s="14"/>
     </row>
     <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="6" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
@@ -1497,19 +1736,17 @@
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
     </row>
-    <row r="72" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="6" t="s">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E72" s="14"/>
-      <c r="F72" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
@@ -1517,12 +1754,12 @@
       <c r="K72" s="14"/>
     </row>
     <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="5" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
@@ -1532,18 +1769,16 @@
       <c r="K73" s="14"/>
     </row>
     <row r="74" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E74" s="14"/>
-      <c r="F74" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
@@ -1551,215 +1786,1407 @@
       <c r="K74" s="14"/>
     </row>
     <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="5"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="5" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="6" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="6" t="s">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6" t="s">
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6" t="s">
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6" t="s">
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="6" t="s">
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="5" t="s">
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="12"/>
-    </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="5" t="s">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="12"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="5" t="s">
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="5" t="s">
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="5" t="s">
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6" t="s">
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6" t="s">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6" t="s">
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="6" t="s">
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832B69F9-7FD5-4189-8CC1-3A43692C8BED}">
+  <dimension ref="A1:G178"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" zoomScale="96" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="16"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+    </row>
+    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+    </row>
+    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+    </row>
+    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+    </row>
+    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+    </row>
+    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
+    </row>
+    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+    </row>
+    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+    </row>
+    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+    </row>
+    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="18"/>
+    </row>
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="18"/>
+    </row>
+    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+    </row>
+    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>